--- a/summaries/representativeSampleSummary_90.xlsx
+++ b/summaries/representativeSampleSummary_90.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -212,6 +212,9 @@
     <t xml:space="preserve">20200529</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0022</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0189-1</t>
   </si>
   <si>
@@ -326,10 +329,10 @@
     <t xml:space="preserve">20200506</t>
   </si>
   <si>
-    <t xml:space="preserve">VSP0065-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0089-1</t>
+    <t xml:space="preserve">VSP0065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0089</t>
   </si>
   <si>
     <t xml:space="preserve">256</t>
@@ -392,16 +395,25 @@
     <t xml:space="preserve">266</t>
   </si>
   <si>
-    <t xml:space="preserve">VSP0155-1</t>
+    <t xml:space="preserve">VSP0262-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5/20/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0155</t>
   </si>
   <si>
     <t xml:space="preserve">05/20/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">20200520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0163-1</t>
+    <t xml:space="preserve">VSP0163</t>
   </si>
   <si>
     <t xml:space="preserve">05/22/2020</t>
@@ -449,7 +461,7 @@
     <t xml:space="preserve">290</t>
   </si>
   <si>
-    <t xml:space="preserve">VSP0230-1</t>
+    <t xml:space="preserve">VSP0230</t>
   </si>
   <si>
     <t xml:space="preserve">06/29/2020</t>
@@ -458,7 +470,7 @@
     <t xml:space="preserve">20200629</t>
   </si>
   <si>
-    <t xml:space="preserve">VSP0233-1</t>
+    <t xml:space="preserve">VSP0233</t>
   </si>
   <si>
     <t xml:space="preserve">07/01/2020</t>
@@ -470,7 +482,7 @@
     <t xml:space="preserve">300</t>
   </si>
   <si>
-    <t xml:space="preserve">VSP0244-1</t>
+    <t xml:space="preserve">VSP0244</t>
   </si>
   <si>
     <t xml:space="preserve">07/13/2020</t>
@@ -1221,7 +1233,7 @@
         <v>46</v>
       </c>
       <c r="G13" t="n">
-        <v>30.04</v>
+        <v>29.34</v>
       </c>
       <c r="H13" t="n">
         <v>99.9</v>
@@ -1251,7 +1263,7 @@
         <v>49</v>
       </c>
       <c r="G14" t="n">
-        <v>29.87</v>
+        <v>29.88</v>
       </c>
       <c r="H14" t="n">
         <v>99.9</v>
@@ -1347,7 +1359,7 @@
         <v>99.8</v>
       </c>
       <c r="I17" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J17" t="s">
         <v>56</v>
@@ -1371,13 +1383,13 @@
         <v>61</v>
       </c>
       <c r="G18" t="n">
-        <v>10.79</v>
+        <v>18.75</v>
       </c>
       <c r="H18" t="n">
         <v>98.5</v>
       </c>
       <c r="I18" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="J18" t="s">
         <v>62</v>
@@ -1421,87 +1433,85 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="n">
-        <v>85100</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D20"/>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G20" t="n">
-        <v>29.82</v>
+        <v>29.68</v>
       </c>
       <c r="H20" t="n">
         <v>99.8</v>
       </c>
       <c r="I20" t="n">
-        <v>99.8</v>
+        <v>98.8</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="n">
+        <v>85100</v>
+      </c>
+      <c r="E21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G21" t="n">
-        <v>10.31</v>
+        <v>29.82</v>
       </c>
       <c r="H21" t="n">
-        <v>94.1</v>
+        <v>99.8</v>
       </c>
       <c r="I21" t="n">
-        <v>92.9</v>
+        <v>99.8</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="s">
         <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="n">
-        <v>176000</v>
-      </c>
-      <c r="E22" t="s">
-        <v>60</v>
       </c>
       <c r="F22" t="s">
         <v>61</v>
       </c>
       <c r="G22" t="n">
-        <v>29.87</v>
+        <v>10.31</v>
       </c>
       <c r="H22" t="n">
-        <v>99.9</v>
+        <v>94.1</v>
       </c>
       <c r="I22" t="n">
-        <v>99.8</v>
+        <v>92.9</v>
       </c>
       <c r="J22" t="s">
         <v>62</v>
@@ -1509,130 +1519,132 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
       <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23"/>
+        <v>68</v>
+      </c>
+      <c r="D23" t="n">
+        <v>176000</v>
+      </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G23" t="n">
-        <v>24.92</v>
+        <v>29.87</v>
       </c>
       <c r="H23" t="n">
-        <v>99.3</v>
+        <v>99.9</v>
       </c>
       <c r="I23" t="n">
-        <v>98.9</v>
+        <v>99.8</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G24" t="n">
-        <v>29.97</v>
+        <v>24.92</v>
       </c>
       <c r="H24" t="n">
-        <v>99.9</v>
+        <v>99.3</v>
       </c>
       <c r="I24" t="n">
-        <v>99.8</v>
+        <v>98.9</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G25" t="n">
-        <v>29.92</v>
+        <v>29.97</v>
       </c>
       <c r="H25" t="n">
         <v>99.9</v>
       </c>
       <c r="I25" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
         <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="n">
-        <v>29.89</v>
+        <v>29.92</v>
       </c>
       <c r="H26" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I26" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1642,24 +1654,24 @@
         <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="n">
-        <v>30.06</v>
+        <v>29.89</v>
       </c>
       <c r="H27" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I27" t="n">
         <v>99.8</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
         <v>86</v>
@@ -1669,139 +1681,137 @@
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="n">
-        <v>27.48</v>
+        <v>30.06</v>
       </c>
       <c r="H28" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I28" t="n">
         <v>99.8</v>
       </c>
       <c r="J28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
         <v>87</v>
       </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
       <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" t="n">
-        <v>364000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D29"/>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G29" t="n">
-        <v>29.45</v>
+        <v>27.48</v>
       </c>
       <c r="H29" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I29" t="n">
         <v>99.8</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" t="n">
-        <v>1420000</v>
+        <v>364000</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G30" t="n">
-        <v>29.31</v>
+        <v>29.45</v>
       </c>
       <c r="H30" t="n">
         <v>99.9</v>
       </c>
       <c r="I30" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31"/>
+        <v>68</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1420000</v>
+      </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G31" t="n">
-        <v>29.88</v>
+        <v>29.31</v>
       </c>
       <c r="H31" t="n">
         <v>99.9</v>
       </c>
       <c r="I31" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J31" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
         <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" t="n">
-        <v>222000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D32"/>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G32" t="n">
-        <v>29.89</v>
+        <v>29.88</v>
       </c>
       <c r="H32" t="n">
         <v>99.9</v>
@@ -1810,468 +1820,462 @@
         <v>99.8</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
         <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33" t="n">
-        <v>667</v>
+        <v>222000</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G33" t="n">
-        <v>29.72</v>
+        <v>29.89</v>
       </c>
       <c r="H33" t="n">
-        <v>99.6</v>
+        <v>99.9</v>
       </c>
       <c r="I33" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="J33" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
         <v>98</v>
       </c>
-      <c r="B34" t="s">
-        <v>99</v>
-      </c>
       <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34"/>
+        <v>68</v>
+      </c>
+      <c r="D34" t="n">
+        <v>667</v>
+      </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G34" t="n">
-        <v>21.42</v>
+        <v>29.72</v>
       </c>
       <c r="H34" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="I34" t="n">
         <v>99.2</v>
       </c>
-      <c r="I34" t="n">
-        <v>99</v>
-      </c>
       <c r="J34" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
         <v>100</v>
       </c>
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
       <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" t="n">
-        <v>255500</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D35"/>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G35" t="n">
-        <v>29.87</v>
+        <v>21.42</v>
       </c>
       <c r="H35" t="n">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="I35" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="J35" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="n">
+        <v>255500</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="H36" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I36" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J36" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="n">
-        <v>7550000</v>
-      </c>
-      <c r="E36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="H36" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="I36" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J36" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
         <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" t="n">
-        <v>570000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D37"/>
       <c r="E37" t="s">
         <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G37" t="n">
-        <v>29.91</v>
+        <v>29.94</v>
       </c>
       <c r="H37" t="n">
         <v>99.9</v>
       </c>
       <c r="I37" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J37" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
         <v>106</v>
       </c>
-      <c r="B38" t="s">
-        <v>107</v>
-      </c>
       <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2760000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D38"/>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G38" t="n">
-        <v>29.82</v>
+        <v>30</v>
       </c>
       <c r="H38" t="n">
-        <v>99.7</v>
+        <v>99.9</v>
       </c>
       <c r="I38" t="n">
         <v>99.7</v>
       </c>
       <c r="J38" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D39" t="n">
-        <v>123000</v>
+        <v>2760000</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G39" t="n">
-        <v>29.89</v>
+        <v>29.82</v>
       </c>
       <c r="H39" t="n">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="I39" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40"/>
+        <v>68</v>
+      </c>
+      <c r="D40" t="n">
+        <v>123000</v>
+      </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G40" t="n">
-        <v>30.07</v>
+        <v>29.89</v>
       </c>
       <c r="H40" t="n">
         <v>99.9</v>
       </c>
       <c r="I40" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="J40" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
         <v>114</v>
       </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
       <c r="C41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" t="n">
-        <v>51800</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D41"/>
       <c r="E41" t="s">
         <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" t="n">
-        <v>29.93</v>
+        <v>30.07</v>
       </c>
       <c r="H41" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I41" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="J41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
         <v>116</v>
       </c>
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
       <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42"/>
+        <v>68</v>
+      </c>
+      <c r="D42" t="n">
+        <v>51800</v>
+      </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G42" t="n">
-        <v>7.26</v>
+        <v>29.93</v>
       </c>
       <c r="H42" t="n">
-        <v>98.1</v>
+        <v>99.8</v>
       </c>
       <c r="I42" t="n">
-        <v>95</v>
+        <v>99.8</v>
       </c>
       <c r="J42" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G43" t="n">
-        <v>29.82</v>
+        <v>7.26</v>
       </c>
       <c r="H43" t="n">
-        <v>99.8</v>
+        <v>98.1</v>
       </c>
       <c r="I43" t="n">
-        <v>99.7</v>
+        <v>95</v>
       </c>
       <c r="J43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
         <v>122</v>
       </c>
-      <c r="B44" t="s">
-        <v>123</v>
-      </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G44" t="n">
-        <v>29.86</v>
+        <v>29.82</v>
       </c>
       <c r="H44" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I44" t="n">
         <v>99.7</v>
       </c>
-      <c r="I44" t="n">
-        <v>99.6</v>
-      </c>
       <c r="J44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
         <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" t="n">
-        <v>172000</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D45"/>
       <c r="E45" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G45" t="n">
-        <v>29.85</v>
+        <v>29.86</v>
       </c>
       <c r="H45" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="I45" t="n">
-        <v>99.8</v>
+        <v>99.6</v>
       </c>
       <c r="J45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" t="s">
         <v>125</v>
       </c>
-      <c r="B46" t="s">
-        <v>126</v>
-      </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D46" t="n">
-        <v>17000</v>
+        <v>172000</v>
       </c>
       <c r="E46" t="s">
         <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G46" t="n">
-        <v>21.42</v>
+        <v>29.85</v>
       </c>
       <c r="H46" t="n">
-        <v>99.4</v>
+        <v>99.8</v>
       </c>
       <c r="I46" t="n">
-        <v>98.2</v>
+        <v>99.8</v>
       </c>
       <c r="J46" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" t="s">
         <v>129</v>
       </c>
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1530000</v>
-      </c>
-      <c r="E47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" t="s">
-        <v>130</v>
-      </c>
       <c r="G47" t="n">
-        <v>29.75</v>
+        <v>29.98</v>
       </c>
       <c r="H47" t="n">
         <v>99.9</v>
@@ -2280,148 +2284,144 @@
         <v>99.8</v>
       </c>
       <c r="J47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" t="s">
         <v>132</v>
       </c>
-      <c r="B48" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" t="n">
-        <v>166000</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>134</v>
-      </c>
       <c r="G48" t="n">
-        <v>29.82</v>
+        <v>22.33</v>
       </c>
       <c r="H48" t="n">
         <v>99.8</v>
       </c>
       <c r="I48" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" t="n">
-        <v>16300</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D49"/>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G49" t="n">
-        <v>29.83</v>
+        <v>29.75</v>
       </c>
       <c r="H49" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I49" t="n">
         <v>99.8</v>
       </c>
       <c r="J49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="n">
+        <v>166000</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="H50" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I50" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J50" t="s">
         <v>139</v>
-      </c>
-      <c r="C50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" t="n">
-        <v>29.84</v>
-      </c>
-      <c r="H50" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I50" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="J50" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" t="s">
         <v>140</v>
       </c>
-      <c r="B51" t="s">
-        <v>141</v>
-      </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D51" t="n">
-        <v>1530000</v>
+        <v>16300</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="G51" t="n">
-        <v>25.63</v>
+        <v>29.83</v>
       </c>
       <c r="H51" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="I51" t="n">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
       <c r="J51" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" t="n">
-        <v>14500</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D52"/>
       <c r="E52" t="s">
         <v>60</v>
       </c>
@@ -2429,13 +2429,13 @@
         <v>134</v>
       </c>
       <c r="G52" t="n">
-        <v>29.41</v>
+        <v>29.84</v>
       </c>
       <c r="H52" t="n">
         <v>99.8</v>
       </c>
       <c r="I52" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="J52" t="s">
         <v>135</v>
@@ -2443,31 +2443,31 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" t="n">
-        <v>14300</v>
+        <v>1530000</v>
       </c>
       <c r="E53" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
         <v>64</v>
       </c>
       <c r="G53" t="n">
-        <v>12.5</v>
+        <v>25.63</v>
       </c>
       <c r="H53" t="n">
-        <v>99.1</v>
+        <v>99.7</v>
       </c>
       <c r="I53" t="n">
-        <v>97.7</v>
+        <v>98.7</v>
       </c>
       <c r="J53" t="s">
         <v>65</v>
@@ -2478,22 +2478,22 @@
         <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54" t="n">
-        <v>11750</v>
+        <v>14500</v>
       </c>
       <c r="E54" t="s">
         <v>60</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G54" t="n">
-        <v>27.24</v>
+        <v>29.41</v>
       </c>
       <c r="H54" t="n">
         <v>99.8</v>
@@ -2502,7 +2502,7 @@
         <v>99.8</v>
       </c>
       <c r="J54" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55">
@@ -2510,153 +2510,213 @@
         <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D55" t="n">
-        <v>27900</v>
+        <v>14300</v>
       </c>
       <c r="E55" t="s">
         <v>60</v>
       </c>
       <c r="F55" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="G55" t="n">
-        <v>29.87</v>
+        <v>12.5</v>
       </c>
       <c r="H55" t="n">
-        <v>99.8</v>
+        <v>99.1</v>
       </c>
       <c r="I55" t="n">
-        <v>99.8</v>
+        <v>97.7</v>
       </c>
       <c r="J55" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
         <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G56" t="n">
-        <v>7.46</v>
+        <v>29.8</v>
       </c>
       <c r="H56" t="n">
-        <v>97.9</v>
+        <v>99.8</v>
       </c>
       <c r="I56" t="n">
-        <v>90.2</v>
+        <v>99.8</v>
       </c>
       <c r="J56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" t="n">
-        <v>313.5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D57"/>
       <c r="E57" t="s">
         <v>60</v>
       </c>
       <c r="F57" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G57" t="n">
-        <v>22.6</v>
+        <v>24.18</v>
       </c>
       <c r="H57" t="n">
-        <v>99.1</v>
+        <v>99.8</v>
       </c>
       <c r="I57" t="n">
-        <v>99.1</v>
+        <v>99.8</v>
       </c>
       <c r="J57" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="F58" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G58" t="n">
-        <v>27.21</v>
+        <v>7.46</v>
       </c>
       <c r="H58" t="n">
-        <v>99.9</v>
+        <v>98</v>
       </c>
       <c r="I58" t="n">
-        <v>99.8</v>
+        <v>90.3</v>
       </c>
       <c r="J58" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>99.1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
         <v>164</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" t="s">
         <v>165</v>
       </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59" t="s">
-        <v>161</v>
-      </c>
-      <c r="F59" t="s">
-        <v>162</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="F60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="H60" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I60" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" t="n">
         <v>30.02</v>
       </c>
-      <c r="H59" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I59" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J59" t="s">
-        <v>163</v>
+      <c r="H61" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I61" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J61" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/representativeSampleSummary_90.xlsx
+++ b/summaries/representativeSampleSummary_90.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">ETA</t>
   </si>
   <si>
-    <t xml:space="preserve">3/30/2020</t>
+    <t xml:space="preserve">03/30/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200330</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">VSP0010</t>
   </si>
   <si>
-    <t xml:space="preserve">4/8/2020</t>
+    <t xml:space="preserve">04/08/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200408</t>
@@ -104,18 +104,12 @@
     <t xml:space="preserve">VSP0013</t>
   </si>
   <si>
-    <t xml:space="preserve">4/13/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0184</t>
   </si>
   <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
-    <t xml:space="preserve">04/08/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0185</t>
   </si>
   <si>
@@ -128,7 +122,7 @@
     <t xml:space="preserve">VSP0014</t>
   </si>
   <si>
-    <t xml:space="preserve">4/15/2020</t>
+    <t xml:space="preserve">04/15/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200415</t>
@@ -140,7 +134,7 @@
     <t xml:space="preserve">VSP0017</t>
   </si>
   <si>
-    <t xml:space="preserve">4/17/2020</t>
+    <t xml:space="preserve">04/17/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200417</t>
@@ -152,9 +146,6 @@
     <t xml:space="preserve">VSP0180</t>
   </si>
   <si>
-    <t xml:space="preserve">04/17/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">VSP0181</t>
   </si>
   <si>
@@ -179,7 +170,7 @@
     <t xml:space="preserve">VSP0020</t>
   </si>
   <si>
-    <t xml:space="preserve">4/22/2020</t>
+    <t xml:space="preserve">04/22/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200422</t>
@@ -245,7 +236,7 @@
     <t xml:space="preserve">VSP0037</t>
   </si>
   <si>
-    <t xml:space="preserve">4/29/2020</t>
+    <t xml:space="preserve">04/29/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200429</t>
@@ -254,7 +245,7 @@
     <t xml:space="preserve">VSP0033</t>
   </si>
   <si>
-    <t xml:space="preserve">4/27/2020</t>
+    <t xml:space="preserve">04/27/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200427</t>
@@ -395,31 +386,28 @@
     <t xml:space="preserve">266</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/20/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/22/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20200522</t>
+  </si>
+  <si>
     <t xml:space="preserve">VSP0262-1</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5/20/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/20/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/22/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200522</t>
+    <t xml:space="preserve">Unk</t>
   </si>
   <si>
     <t xml:space="preserve">269</t>
@@ -479,25 +467,13 @@
     <t xml:space="preserve">20200701</t>
   </si>
   <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP0244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/13/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20200713</t>
-  </si>
-  <si>
     <t xml:space="preserve">307</t>
   </si>
   <si>
     <t xml:space="preserve">VSP0256-1</t>
   </si>
   <si>
-    <t xml:space="preserve">07/17/20</t>
+    <t xml:space="preserve">07/17/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200717</t>
@@ -512,7 +488,7 @@
     <t xml:space="preserve">Vero cells</t>
   </si>
   <si>
-    <t xml:space="preserve">3/28/2020</t>
+    <t xml:space="preserve">03/28/2020</t>
   </si>
   <si>
     <t xml:space="preserve">20200328</t>
@@ -1050,7 +1026,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
         <v>29.9</v>
@@ -1070,17 +1046,17 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
         <v>29.86</v>
@@ -1100,14 +1076,14 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
@@ -1127,10 +1103,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1140,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
         <v>29.86</v>
@@ -1152,15 +1128,15 @@
         <v>99.7</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1170,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" t="n">
         <v>7.66</v>
@@ -1182,25 +1158,25 @@
         <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
         <v>29.87</v>
@@ -1212,25 +1188,25 @@
         <v>99.7</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
         <v>29.34</v>
@@ -1242,25 +1218,25 @@
         <v>99.9</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G14" t="n">
         <v>29.88</v>
@@ -1272,25 +1248,25 @@
         <v>99.9</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
         <v>29.96</v>
@@ -1302,28 +1278,28 @@
         <v>99.9</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G16" t="n">
-        <v>29.98</v>
+        <v>29.91</v>
       </c>
       <c r="H16" t="n">
         <v>99.8</v>
@@ -1332,25 +1308,25 @@
         <v>99.8</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G17" t="n">
         <v>29.82</v>
@@ -1362,28 +1338,28 @@
         <v>99.8</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G18" t="n">
-        <v>18.75</v>
+        <v>18.98</v>
       </c>
       <c r="H18" t="n">
         <v>98.5</v>
@@ -1392,25 +1368,25 @@
         <v>98.5</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G19" t="n">
         <v>29.9</v>
@@ -1422,25 +1398,25 @@
         <v>99.8</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G20" t="n">
         <v>29.68</v>
@@ -1452,27 +1428,27 @@
         <v>98.8</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
         <v>85100</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G21" t="n">
         <v>29.82</v>
@@ -1484,28 +1460,28 @@
         <v>99.8</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G22" t="n">
-        <v>10.31</v>
+        <v>10.28</v>
       </c>
       <c r="H22" t="n">
         <v>94.1</v>
@@ -1514,27 +1490,27 @@
         <v>92.9</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" t="n">
         <v>176000</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G23" t="n">
         <v>29.87</v>
@@ -1546,25 +1522,25 @@
         <v>99.8</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G24" t="n">
         <v>24.92</v>
@@ -1576,25 +1552,25 @@
         <v>98.9</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G25" t="n">
         <v>29.97</v>
@@ -1606,25 +1582,25 @@
         <v>99.8</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G26" t="n">
         <v>29.92</v>
@@ -1636,25 +1612,25 @@
         <v>99.5</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G27" t="n">
         <v>29.89</v>
@@ -1666,25 +1642,25 @@
         <v>99.8</v>
       </c>
       <c r="J27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G28" t="n">
         <v>30.06</v>
@@ -1696,25 +1672,25 @@
         <v>99.8</v>
       </c>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G29" t="n">
         <v>27.48</v>
@@ -1726,27 +1702,27 @@
         <v>99.8</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" t="n">
         <v>364000</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G30" t="n">
         <v>29.45</v>
@@ -1758,18 +1734,18 @@
         <v>99.8</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D31" t="n">
         <v>1420000</v>
@@ -1778,7 +1754,7 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G31" t="n">
         <v>29.31</v>
@@ -1790,25 +1766,25 @@
         <v>99.7</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G32" t="n">
         <v>29.88</v>
@@ -1820,27 +1796,27 @@
         <v>99.8</v>
       </c>
       <c r="J32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D33" t="n">
         <v>222000</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G33" t="n">
         <v>29.89</v>
@@ -1852,27 +1828,27 @@
         <v>99.8</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D34" t="n">
         <v>667</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G34" t="n">
         <v>29.72</v>
@@ -1884,25 +1860,25 @@
         <v>99.2</v>
       </c>
       <c r="J34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G35" t="n">
         <v>21.42</v>
@@ -1914,18 +1890,18 @@
         <v>99</v>
       </c>
       <c r="J35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D36" t="n">
         <v>255500</v>
@@ -1934,10 +1910,10 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>29.87</v>
+        <v>29.82</v>
       </c>
       <c r="H36" t="n">
         <v>99.8</v>
@@ -1946,25 +1922,25 @@
         <v>99.8</v>
       </c>
       <c r="J36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G37" t="n">
         <v>29.94</v>
@@ -1976,25 +1952,25 @@
         <v>99.8</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
         <v>30</v>
@@ -2006,18 +1982,18 @@
         <v>99.7</v>
       </c>
       <c r="J38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D39" t="n">
         <v>2760000</v>
@@ -2026,7 +2002,7 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G39" t="n">
         <v>29.82</v>
@@ -2038,18 +2014,18 @@
         <v>99.7</v>
       </c>
       <c r="J39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D40" t="n">
         <v>123000</v>
@@ -2058,7 +2034,7 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G40" t="n">
         <v>29.89</v>
@@ -2070,28 +2046,28 @@
         <v>99.8</v>
       </c>
       <c r="J40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G41" t="n">
-        <v>30.07</v>
+        <v>29.99</v>
       </c>
       <c r="H41" t="n">
         <v>99.9</v>
@@ -2100,27 +2076,27 @@
         <v>99.9</v>
       </c>
       <c r="J41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D42" t="n">
         <v>51800</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G42" t="n">
         <v>29.93</v>
@@ -2132,25 +2108,25 @@
         <v>99.8</v>
       </c>
       <c r="J42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G43" t="n">
         <v>7.26</v>
@@ -2159,28 +2135,28 @@
         <v>98.1</v>
       </c>
       <c r="I43" t="n">
-        <v>95</v>
+        <v>95.1</v>
       </c>
       <c r="J43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G44" t="n">
         <v>29.82</v>
@@ -2192,28 +2168,28 @@
         <v>99.7</v>
       </c>
       <c r="J44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G45" t="n">
-        <v>29.86</v>
+        <v>29.81</v>
       </c>
       <c r="H45" t="n">
         <v>99.7</v>
@@ -2222,27 +2198,27 @@
         <v>99.6</v>
       </c>
       <c r="J45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D46" t="n">
         <v>172000</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G46" t="n">
         <v>29.85</v>
@@ -2254,88 +2230,88 @@
         <v>99.8</v>
       </c>
       <c r="J46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G47" t="n">
-        <v>29.98</v>
+        <v>22.33</v>
       </c>
       <c r="H47" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I47" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F48" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G48" t="n">
-        <v>22.33</v>
+        <v>29.75</v>
       </c>
       <c r="H48" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="I48" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="F49" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G49" t="n">
-        <v>29.75</v>
+        <v>29.98</v>
       </c>
       <c r="H49" t="n">
         <v>99.9</v>
@@ -2344,18 +2320,18 @@
         <v>99.8</v>
       </c>
       <c r="J49" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D50" t="n">
         <v>166000</v>
@@ -2364,7 +2340,7 @@
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G50" t="n">
         <v>29.82</v>
@@ -2376,18 +2352,18 @@
         <v>99.8</v>
       </c>
       <c r="J50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
         <v>136</v>
       </c>
-      <c r="B51" t="s">
-        <v>140</v>
-      </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D51" t="n">
         <v>16300</v>
@@ -2396,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G51" t="n">
         <v>29.83</v>
@@ -2408,25 +2384,25 @@
         <v>99.8</v>
       </c>
       <c r="J51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G52" t="n">
         <v>29.84</v>
@@ -2438,18 +2414,18 @@
         <v>99.5</v>
       </c>
       <c r="J52" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D53" t="n">
         <v>1530000</v>
@@ -2458,7 +2434,7 @@
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G53" t="n">
         <v>25.63</v>
@@ -2470,27 +2446,27 @@
         <v>98.7</v>
       </c>
       <c r="J53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D54" t="n">
         <v>14500</v>
       </c>
       <c r="E54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F54" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G54" t="n">
         <v>29.41</v>
@@ -2502,27 +2478,27 @@
         <v>99.8</v>
       </c>
       <c r="J54" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D55" t="n">
         <v>14300</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G55" t="n">
         <v>12.5</v>
@@ -2534,25 +2510,25 @@
         <v>97.7</v>
       </c>
       <c r="J55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G56" t="n">
         <v>29.8</v>
@@ -2564,25 +2540,25 @@
         <v>99.8</v>
       </c>
       <c r="J56" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" t="s">
         <v>148</v>
-      </c>
-      <c r="B57" t="s">
-        <v>152</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G57" t="n">
         <v>24.18</v>
@@ -2594,129 +2570,99 @@
         <v>99.8</v>
       </c>
       <c r="J57" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58"/>
+        <v>65</v>
+      </c>
+      <c r="D58" t="n">
+        <v>313.5</v>
+      </c>
       <c r="E58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G58" t="n">
-        <v>7.46</v>
+        <v>22.6</v>
       </c>
       <c r="H58" t="n">
-        <v>98</v>
+        <v>99.1</v>
       </c>
       <c r="I58" t="n">
-        <v>90.3</v>
+        <v>99.1</v>
       </c>
       <c r="J58" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="H59" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="I59" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J59" t="s">
         <v>159</v>
-      </c>
-      <c r="B59" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" t="n">
-        <v>313.5</v>
-      </c>
-      <c r="E59" t="s">
-        <v>60</v>
-      </c>
-      <c r="F59" t="s">
-        <v>161</v>
-      </c>
-      <c r="G59" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="H59" t="n">
-        <v>99.1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>99.1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G60" t="n">
-        <v>27.21</v>
+        <v>30.02</v>
       </c>
       <c r="H60" t="n">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I60" t="n">
         <v>99.8</v>
       </c>
       <c r="J60" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61" t="s">
-        <v>165</v>
-      </c>
-      <c r="F61" t="s">
-        <v>166</v>
-      </c>
-      <c r="G61" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="H61" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I61" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J61" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
